--- a/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
+++ b/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\bldgs\SoDSCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/bldgs/sodscbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE39E34D-69A6-4F3D-B443-E81143DC1E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CD6EB-7312-3D42-AB1B-29DC63F107A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -485,7 +485,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -503,6 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -785,21 +786,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="11">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
@@ -807,42 +811,42 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -862,17 +866,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="66.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="66.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -887,7 +891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -910,7 +914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -935,7 +939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -960,7 +964,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -985,7 +989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1160,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>65</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
         <v>120</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
         <v>73</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
         <v>74</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
         <v>75</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
         <v>76</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
         <v>77</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>78</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>79</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>80</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>81</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>82</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>83</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
         <v>84</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>85</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
         <v>86</v>
       </c>
@@ -1618,7 +1622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>55</v>
       </c>
@@ -1640,12 +1644,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>57</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>

--- a/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
+++ b/InputData/bldgs/SoDSCbRIC/Shr of Dist Solar Costs by Rcpnt ISIC Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/bldgs/sodscbric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/sodscbric/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2CD6EB-7312-3D42-AB1B-29DC63F107A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4007D6D-DA58-C445-982F-09B6F8B5233F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="25660" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
